--- a/processed_data/all_pyrolysis_data/kmeans_results.xlsx
+++ b/processed_data/all_pyrolysis_data/kmeans_results.xlsx
@@ -13,7 +13,307 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="200">
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0019.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0002.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0007.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0018.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0028.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0029.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0030.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0034.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0035.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0040.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0043.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0046.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0047.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0048.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0058.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0060.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0061.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0062.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0003.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0018.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0037.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0038.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0040.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0009.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0011.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0019.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0020.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0021.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0022.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0026.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0029.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0034.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0035.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0037.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0051.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0053.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0054.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0055.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0056.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0057.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0059.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0060.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0002.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0004.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0005.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0010.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0015.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0007.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0023.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0027.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0028.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0029.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0030.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0033.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0043.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0046.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0048.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0053.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0056.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0057.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_kook</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
   <si>
     <t>fname</t>
   </si>
@@ -333,7 +633,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -342,13 +642,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,63 +685,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -491,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
@@ -543,7 +845,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
@@ -595,7 +897,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
@@ -647,7 +949,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
@@ -703,7 +1005,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
@@ -759,7 +1061,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
@@ -815,7 +1117,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
@@ -867,7 +1169,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
@@ -919,7 +1221,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
@@ -975,7 +1277,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
@@ -1027,7 +1329,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
@@ -1083,7 +1385,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
@@ -1135,7 +1437,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
@@ -1187,7 +1489,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
@@ -1243,7 +1545,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
@@ -1295,7 +1597,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
@@ -1347,7 +1649,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
@@ -1403,7 +1705,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
@@ -1455,7 +1757,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
@@ -1511,7 +1813,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
@@ -1567,7 +1869,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
@@ -1619,7 +1921,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
@@ -1675,7 +1977,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
@@ -1731,7 +2033,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
@@ -1787,7 +2089,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
@@ -1843,7 +2145,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
@@ -1899,7 +2201,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
@@ -1955,7 +2257,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
@@ -2011,7 +2313,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
@@ -2067,7 +2369,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
@@ -2123,7 +2425,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
@@ -2179,7 +2481,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
@@ -2235,7 +2537,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
@@ -2291,7 +2593,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
@@ -2347,7 +2649,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
@@ -2403,7 +2705,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
@@ -2459,7 +2761,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
@@ -2511,7 +2813,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
@@ -2567,7 +2869,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
@@ -2619,7 +2921,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
@@ -2671,7 +2973,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
@@ -2727,7 +3029,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
@@ -2783,7 +3085,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
@@ -2835,7 +3137,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
@@ -2887,7 +3189,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
@@ -2943,7 +3245,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
@@ -2999,7 +3301,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
@@ -3051,7 +3353,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
@@ -3107,7 +3409,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
@@ -3163,7 +3465,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
@@ -3219,7 +3521,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
@@ -3271,7 +3573,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
@@ -3323,7 +3625,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
@@ -3379,7 +3681,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
@@ -3435,7 +3737,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
@@ -3487,7 +3789,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
@@ -3539,7 +3841,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
@@ -3595,7 +3897,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
@@ -3651,7 +3953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>
@@ -3707,7 +4009,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B62" s="0">
         <v>61</v>
@@ -3763,7 +4065,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B63" s="0">
         <v>62</v>
@@ -3819,7 +4121,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B64" s="0">
         <v>63</v>
@@ -3875,7 +4177,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B65" s="0">
         <v>64</v>
@@ -3931,7 +4233,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B66" s="0">
         <v>65</v>
@@ -3983,7 +4285,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B67" s="0">
         <v>66</v>
@@ -4035,7 +4337,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B68" s="0">
         <v>67</v>
@@ -4087,7 +4389,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B69" s="0">
         <v>68</v>
@@ -4139,7 +4441,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B70" s="0">
         <v>69</v>
@@ -4191,7 +4493,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B71" s="0">
         <v>70</v>
@@ -4247,7 +4549,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B72" s="0">
         <v>71</v>
@@ -4299,7 +4601,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B73" s="0">
         <v>72</v>
@@ -4351,7 +4653,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B74" s="0">
         <v>73</v>
@@ -4407,7 +4709,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B75" s="0">
         <v>74</v>
@@ -4463,7 +4765,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B76" s="0">
         <v>75</v>
@@ -4519,7 +4821,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B77" s="0">
         <v>76</v>
@@ -4571,7 +4873,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B78" s="0">
         <v>77</v>
@@ -4623,7 +4925,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B79" s="0">
         <v>78</v>
@@ -4679,7 +4981,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B80" s="0">
         <v>79</v>
@@ -4735,7 +5037,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B81" s="0">
         <v>80</v>
@@ -4791,7 +5093,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B82" s="0">
         <v>81</v>
@@ -4843,7 +5145,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B83" s="0">
         <v>82</v>
@@ -4895,7 +5197,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B84" s="0">
         <v>83</v>
@@ -4951,7 +5253,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B85" s="0">
         <v>84</v>
@@ -5003,7 +5305,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B86" s="0">
         <v>85</v>
@@ -5059,7 +5361,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B87" s="0">
         <v>86</v>
@@ -5111,7 +5413,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B88" s="0">
         <v>87</v>
@@ -5167,7 +5469,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B89" s="0">
         <v>88</v>
@@ -5219,7 +5521,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B90" s="0">
         <v>89</v>
@@ -5271,7 +5573,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B91" s="0">
         <v>90</v>
@@ -5327,7 +5629,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B92" s="0">
         <v>91</v>
@@ -5379,7 +5681,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B93" s="0">
         <v>92</v>
@@ -5431,7 +5733,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B94" s="0">
         <v>93</v>
@@ -5483,7 +5785,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B95" s="0">
         <v>94</v>
@@ -5535,7 +5837,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B96" s="0">
         <v>95</v>
@@ -5587,7 +5889,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B97" s="0">
         <v>96</v>
@@ -5643,7 +5945,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B98" s="0">
         <v>97</v>
@@ -5699,7 +6001,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B99" s="0">
         <v>98</v>
@@ -5751,7 +6053,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B100" s="0">
         <v>99</v>
@@ -5803,7 +6105,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B101" s="0">
         <v>100</v>
@@ -5855,7 +6157,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B102" s="0">
         <v>101</v>
@@ -5907,7 +6209,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B103" s="0">
         <v>102</v>
@@ -5959,7 +6261,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B104" s="0">
         <v>103</v>
@@ -6011,7 +6313,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B105" s="0">
         <v>104</v>
@@ -6067,7 +6369,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B106" s="0">
         <v>105</v>
@@ -6119,7 +6421,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B107" s="0">
         <v>106</v>
@@ -6171,7 +6473,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B108" s="0">
         <v>107</v>
@@ -6223,7 +6525,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B109" s="0">
         <v>108</v>
@@ -6279,7 +6581,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B110" s="0">
         <v>109</v>
@@ -6331,7 +6633,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B111" s="0">
         <v>110</v>
@@ -6383,7 +6685,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B112" s="0">
         <v>111</v>
@@ -6435,7 +6737,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B113" s="0">
         <v>112</v>
@@ -6487,7 +6789,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B114" s="0">
         <v>113</v>
@@ -6543,7 +6845,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B115" s="0">
         <v>114</v>
@@ -6595,7 +6897,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B116" s="0">
         <v>115</v>
@@ -6647,7 +6949,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B117" s="0">
         <v>116</v>
@@ -6703,7 +7005,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B118" s="0">
         <v>117</v>
@@ -6755,7 +7057,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B119" s="0">
         <v>118</v>
@@ -6807,7 +7109,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B120" s="0">
         <v>119</v>
@@ -6859,7 +7161,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B121" s="0">
         <v>120</v>
@@ -6911,7 +7213,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B122" s="0">
         <v>121</v>
@@ -6963,7 +7265,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B123" s="0">
         <v>122</v>
@@ -7015,7 +7317,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B124" s="0">
         <v>123</v>
@@ -7067,7 +7369,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B125" s="0">
         <v>124</v>
@@ -7119,7 +7421,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B126" s="0">
         <v>125</v>
@@ -7171,7 +7473,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B127" s="0">
         <v>126</v>
@@ -7227,7 +7529,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B128" s="0">
         <v>127</v>
@@ -7283,7 +7585,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B129" s="0">
         <v>128</v>
@@ -7335,7 +7637,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B130" s="0">
         <v>129</v>
@@ -7387,7 +7689,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B131" s="0">
         <v>130</v>
@@ -7439,7 +7741,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B132" s="0">
         <v>131</v>
@@ -7491,7 +7793,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B133" s="0">
         <v>132</v>
@@ -7543,7 +7845,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B134" s="0">
         <v>133</v>
@@ -7595,7 +7897,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B135" s="0">
         <v>134</v>
@@ -7647,7 +7949,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B136" s="0">
         <v>135</v>
@@ -7699,7 +8001,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B137" s="0">
         <v>136</v>
@@ -7755,7 +8057,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B138" s="0">
         <v>137</v>
@@ -7811,7 +8113,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B139" s="0">
         <v>138</v>
@@ -7867,7 +8169,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B140" s="0">
         <v>139</v>
@@ -7923,7 +8225,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B141" s="0">
         <v>140</v>
@@ -7979,7 +8281,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B142" s="0">
         <v>141</v>
@@ -8035,7 +8337,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B143" s="0">
         <v>142</v>
@@ -8091,7 +8393,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B144" s="0">
         <v>143</v>
@@ -8147,7 +8449,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B145" s="0">
         <v>144</v>
@@ -8203,7 +8505,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B146" s="0">
         <v>145</v>
@@ -8259,7 +8561,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B147" s="0">
         <v>146</v>
@@ -8315,7 +8617,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B148" s="0">
         <v>147</v>
@@ -8371,7 +8673,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B149" s="0">
         <v>148</v>
@@ -8427,7 +8729,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B150" s="0">
         <v>149</v>
@@ -8483,7 +8785,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B151" s="0">
         <v>150</v>
@@ -8539,7 +8841,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B152" s="0">
         <v>151</v>
@@ -8595,7 +8897,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B153" s="0">
         <v>152</v>
@@ -8647,7 +8949,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B154" s="0">
         <v>153</v>
@@ -8703,7 +9005,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B155" s="0">
         <v>154</v>
@@ -8759,7 +9061,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B156" s="0">
         <v>155</v>
@@ -8811,7 +9113,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B157" s="0">
         <v>156</v>
@@ -8863,7 +9165,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B158" s="0">
         <v>157</v>
@@ -8919,7 +9221,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B159" s="0">
         <v>158</v>
@@ -8975,7 +9277,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B160" s="0">
         <v>159</v>
@@ -9031,7 +9333,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B161" s="0">
         <v>160</v>
@@ -9083,7 +9385,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B162" s="0">
         <v>161</v>
@@ -9139,7 +9441,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B163" s="0">
         <v>162</v>
@@ -9195,7 +9497,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B164" s="0">
         <v>163</v>
@@ -9247,7 +9549,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B165" s="0">
         <v>164</v>
@@ -9303,7 +9605,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B166" s="0">
         <v>165</v>
@@ -9359,7 +9661,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B167" s="0">
         <v>166</v>
@@ -9411,7 +9713,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B168" s="0">
         <v>167</v>
@@ -9463,7 +9765,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B169" s="0">
         <v>168</v>
@@ -9519,7 +9821,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B170" s="0">
         <v>169</v>
@@ -9571,7 +9873,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B171" s="0">
         <v>170</v>
@@ -9623,7 +9925,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B172" s="0">
         <v>171</v>
@@ -9679,7 +9981,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B173" s="0">
         <v>172</v>
@@ -9735,7 +10037,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B174" s="0">
         <v>173</v>
@@ -9791,7 +10093,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B175" s="0">
         <v>174</v>
@@ -9847,7 +10149,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B176" s="0">
         <v>175</v>
@@ -9899,7 +10201,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B177" s="0">
         <v>176</v>
@@ -9955,7 +10257,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B178" s="0">
         <v>177</v>
@@ -10011,7 +10313,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B179" s="0">
         <v>178</v>
@@ -10063,7 +10365,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B180" s="0">
         <v>179</v>
@@ -10115,7 +10417,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B181" s="0">
         <v>180</v>
@@ -10171,7 +10473,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B182" s="0">
         <v>181</v>
@@ -10223,7 +10525,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B183" s="0">
         <v>182</v>
@@ -10279,7 +10581,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B184" s="0">
         <v>183</v>
@@ -10331,7 +10633,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B185" s="0">
         <v>184</v>
@@ -10387,7 +10689,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B186" s="0">
         <v>185</v>
@@ -10443,7 +10745,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B187" s="0">
         <v>186</v>
@@ -10495,7 +10797,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B188" s="0">
         <v>187</v>
@@ -10551,7 +10853,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B189" s="0">
         <v>188</v>
@@ -10603,7 +10905,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B190" s="0">
         <v>189</v>
@@ -10655,7 +10957,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B191" s="0">
         <v>190</v>
@@ -10711,7 +11013,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B192" s="0">
         <v>191</v>
@@ -10767,7 +11069,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B193" s="0">
         <v>192</v>
@@ -10823,7 +11125,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B194" s="0">
         <v>193</v>
@@ -10879,7 +11181,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B195" s="0">
         <v>194</v>
@@ -10935,7 +11237,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B196" s="0">
         <v>195</v>
@@ -10991,7 +11293,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B197" s="0">
         <v>196</v>
@@ -11047,7 +11349,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B198" s="0">
         <v>197</v>
@@ -11099,7 +11401,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B199" s="0">
         <v>198</v>
@@ -11151,7 +11453,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B200" s="0">
         <v>199</v>
@@ -11203,7 +11505,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B201" s="0">
         <v>200</v>
@@ -11259,7 +11561,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B202" s="0">
         <v>201</v>
@@ -11311,7 +11613,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B203" s="0">
         <v>202</v>
@@ -11363,7 +11665,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B204" s="0">
         <v>203</v>
@@ -11415,7 +11717,7 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B205" s="0">
         <v>204</v>
@@ -11471,7 +11773,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B206" s="0">
         <v>205</v>
@@ -11523,7 +11825,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B207" s="0">
         <v>206</v>
@@ -11579,7 +11881,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B208" s="0">
         <v>207</v>
@@ -11631,7 +11933,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B209" s="0">
         <v>208</v>
@@ -11687,7 +11989,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B210" s="0">
         <v>209</v>
@@ -11743,7 +12045,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B211" s="0">
         <v>210</v>
@@ -11795,7 +12097,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B212" s="0">
         <v>211</v>
@@ -11847,7 +12149,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B213" s="0">
         <v>212</v>
@@ -11903,7 +12205,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B214" s="0">
         <v>213</v>
@@ -11955,7 +12257,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B215" s="0">
         <v>214</v>
@@ -12007,7 +12309,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B216" s="0">
         <v>215</v>
@@ -12059,7 +12361,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B217" s="0">
         <v>216</v>
@@ -12115,7 +12417,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B218" s="0">
         <v>217</v>
@@ -12171,7 +12473,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B219" s="0">
         <v>218</v>
@@ -12223,7 +12525,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B220" s="0">
         <v>219</v>
@@ -12279,7 +12581,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B221" s="0">
         <v>220</v>
@@ -12335,7 +12637,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B222" s="0">
         <v>221</v>
@@ -12387,7 +12689,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B223" s="0">
         <v>222</v>
@@ -12439,7 +12741,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B224" s="0">
         <v>223</v>
@@ -12491,7 +12793,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B225" s="0">
         <v>224</v>
@@ -12543,7 +12845,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B226" s="0">
         <v>225</v>
@@ -12595,7 +12897,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B227" s="0">
         <v>226</v>
@@ -12651,7 +12953,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B228" s="0">
         <v>227</v>
@@ -12703,7 +13005,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B229" s="0">
         <v>228</v>
@@ -12759,7 +13061,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B230" s="0">
         <v>229</v>
@@ -12811,7 +13113,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B231" s="0">
         <v>230</v>
@@ -12863,7 +13165,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B232" s="0">
         <v>231</v>
@@ -12915,7 +13217,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B233" s="0">
         <v>232</v>
@@ -12971,7 +13273,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B234" s="0">
         <v>233</v>
@@ -13023,7 +13325,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B235" s="0">
         <v>234</v>
@@ -13075,7 +13377,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B236" s="0">
         <v>235</v>
@@ -13127,7 +13429,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B237" s="0">
         <v>236</v>
@@ -13179,7 +13481,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B238" s="0">
         <v>237</v>
@@ -13231,7 +13533,7 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B239" s="0">
         <v>238</v>
@@ -13287,7 +13589,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B240" s="0">
         <v>239</v>
@@ -13339,7 +13641,7 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B241" s="0">
         <v>240</v>
@@ -13391,7 +13693,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B242" s="0">
         <v>241</v>
@@ -13443,7 +13745,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B243" s="0">
         <v>242</v>
@@ -13495,7 +13797,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B244" s="0">
         <v>243</v>
@@ -13551,7 +13853,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B245" s="0">
         <v>244</v>
@@ -13603,7 +13905,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B246" s="0">
         <v>245</v>
@@ -13659,7 +13961,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B247" s="0">
         <v>246</v>
@@ -13715,7 +14017,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B248" s="0">
         <v>247</v>
@@ -13771,7 +14073,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B249" s="0">
         <v>248</v>
@@ -13827,7 +14129,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B250" s="0">
         <v>249</v>
@@ -13883,7 +14185,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B251" s="0">
         <v>250</v>
@@ -13939,7 +14241,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B252" s="0">
         <v>251</v>
@@ -13991,7 +14293,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B253" s="0">
         <v>252</v>
@@ -14043,7 +14345,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B254" s="0">
         <v>253</v>
@@ -14099,7 +14401,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B255" s="0">
         <v>254</v>
@@ -14155,7 +14457,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B256" s="0">
         <v>255</v>
@@ -14211,7 +14513,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B257" s="0">
         <v>256</v>
@@ -14267,7 +14569,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B258" s="0">
         <v>257</v>
@@ -14323,7 +14625,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B259" s="0">
         <v>258</v>
@@ -14375,7 +14677,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B260" s="0">
         <v>259</v>
@@ -14431,7 +14733,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B261" s="0">
         <v>260</v>
@@ -14483,7 +14785,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B262" s="0">
         <v>261</v>
@@ -14539,7 +14841,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B263" s="0">
         <v>262</v>
@@ -14595,7 +14897,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B264" s="0">
         <v>263</v>
@@ -14651,7 +14953,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B265" s="0">
         <v>264</v>
@@ -14703,7 +15005,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B266" s="0">
         <v>265</v>
@@ -14759,7 +15061,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B267" s="0">
         <v>266</v>
@@ -14815,7 +15117,7 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B268" s="0">
         <v>267</v>
@@ -14871,7 +15173,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B269" s="0">
         <v>268</v>
@@ -14923,7 +15225,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B270" s="0">
         <v>269</v>
@@ -14975,7 +15277,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B271" s="0">
         <v>270</v>
@@ -15027,7 +15329,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B272" s="0">
         <v>271</v>
@@ -15083,7 +15385,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B273" s="0">
         <v>272</v>
@@ -15139,7 +15441,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B274" s="0">
         <v>273</v>
@@ -15195,7 +15497,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B275" s="0">
         <v>274</v>
@@ -15247,7 +15549,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B276" s="0">
         <v>275</v>
@@ -15303,7 +15605,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B277" s="0">
         <v>276</v>
@@ -15359,7 +15661,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B278" s="0">
         <v>277</v>
@@ -15415,7 +15717,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B279" s="0">
         <v>278</v>
@@ -15471,7 +15773,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B280" s="0">
         <v>279</v>
@@ -15523,7 +15825,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B281" s="0">
         <v>280</v>
@@ -15579,7 +15881,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B282" s="0">
         <v>281</v>
@@ -15635,7 +15937,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B283" s="0">
         <v>282</v>
@@ -15691,7 +15993,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B284" s="0">
         <v>283</v>
@@ -15747,7 +16049,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B285" s="0">
         <v>284</v>
@@ -15803,7 +16105,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B286" s="0">
         <v>285</v>
@@ -15859,7 +16161,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B287" s="0">
         <v>286</v>
@@ -15915,7 +16217,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B288" s="0">
         <v>287</v>
@@ -15971,7 +16273,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B289" s="0">
         <v>288</v>
@@ -16027,7 +16329,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B290" s="0">
         <v>289</v>
@@ -16083,7 +16385,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B291" s="0">
         <v>290</v>
@@ -16135,7 +16437,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B292" s="0">
         <v>291</v>
@@ -16191,7 +16493,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B293" s="0">
         <v>292</v>
@@ -16243,7 +16545,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B294" s="0">
         <v>293</v>
@@ -16299,7 +16601,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B295" s="0">
         <v>294</v>
@@ -16355,7 +16657,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B296" s="0">
         <v>295</v>
@@ -16411,7 +16713,7 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B297" s="0">
         <v>296</v>
@@ -16463,7 +16765,7 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B298" s="0">
         <v>297</v>
@@ -16515,7 +16817,7 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B299" s="0">
         <v>298</v>
@@ -16567,7 +16869,7 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B300" s="0">
         <v>299</v>
@@ -16623,7 +16925,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B301" s="0">
         <v>300</v>
@@ -16675,7 +16977,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B302" s="0">
         <v>301</v>
@@ -16731,7 +17033,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B303" s="0">
         <v>302</v>
@@ -16787,7 +17089,7 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B304" s="0">
         <v>303</v>
@@ -16843,7 +17145,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B305" s="0">
         <v>304</v>
@@ -16899,7 +17201,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B306" s="0">
         <v>305</v>
@@ -16955,7 +17257,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B307" s="0">
         <v>306</v>
@@ -17011,7 +17313,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B308" s="0">
         <v>307</v>
@@ -17067,7 +17369,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B309" s="0">
         <v>308</v>
@@ -17123,7 +17425,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B310" s="0">
         <v>309</v>
@@ -17179,7 +17481,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B311" s="0">
         <v>310</v>
@@ -17235,7 +17537,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B312" s="0">
         <v>311</v>
@@ -17291,7 +17593,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B313" s="0">
         <v>312</v>
@@ -17347,7 +17649,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B314" s="0">
         <v>313</v>
@@ -17403,7 +17705,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B315" s="0">
         <v>314</v>
@@ -17459,7 +17761,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B316" s="0">
         <v>315</v>
@@ -17511,7 +17813,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B317" s="0">
         <v>316</v>
@@ -17563,7 +17865,7 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B318" s="0">
         <v>317</v>
@@ -17615,7 +17917,7 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B319" s="0">
         <v>318</v>
@@ -17671,7 +17973,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B320" s="0">
         <v>319</v>
@@ -17723,7 +18025,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B321" s="0">
         <v>320</v>
@@ -17779,7 +18081,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B322" s="0">
         <v>321</v>
@@ -17831,7 +18133,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B323" s="0">
         <v>322</v>
@@ -17883,7 +18185,7 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B324" s="0">
         <v>323</v>
@@ -17939,7 +18241,7 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B325" s="0">
         <v>324</v>
@@ -17991,7 +18293,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B326" s="0">
         <v>325</v>
@@ -18043,7 +18345,7 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B327" s="0">
         <v>326</v>
@@ -18095,7 +18397,7 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B328" s="0">
         <v>327</v>
@@ -18147,7 +18449,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B329" s="0">
         <v>328</v>
@@ -18203,7 +18505,7 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B330" s="0">
         <v>329</v>
@@ -18259,7 +18561,7 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B331" s="0">
         <v>330</v>
@@ -18311,7 +18613,7 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B332" s="0">
         <v>331</v>
@@ -18363,7 +18665,7 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B333" s="0">
         <v>332</v>
@@ -18419,7 +18721,7 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B334" s="0">
         <v>333</v>
@@ -18475,7 +18777,7 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B335" s="0">
         <v>334</v>
@@ -18531,7 +18833,7 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B336" s="0">
         <v>335</v>
@@ -18583,7 +18885,7 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B337" s="0">
         <v>336</v>
@@ -18639,7 +18941,7 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B338" s="0">
         <v>337</v>
@@ -18691,7 +18993,7 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B339" s="0">
         <v>338</v>
@@ -18743,7 +19045,7 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B340" s="0">
         <v>339</v>
@@ -18795,7 +19097,7 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B341" s="0">
         <v>340</v>
@@ -18847,7 +19149,7 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B342" s="0">
         <v>341</v>
@@ -18903,7 +19205,7 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B343" s="0">
         <v>342</v>
@@ -18959,7 +19261,7 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B344" s="0">
         <v>343</v>
@@ -19015,7 +19317,7 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B345" s="0">
         <v>344</v>
@@ -19067,7 +19369,7 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B346" s="0">
         <v>345</v>
@@ -19119,7 +19421,7 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B347" s="0">
         <v>346</v>
@@ -19171,7 +19473,7 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B348" s="0">
         <v>347</v>
@@ -19223,7 +19525,7 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B349" s="0">
         <v>348</v>
@@ -19275,7 +19577,7 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B350" s="0">
         <v>349</v>
@@ -19327,7 +19629,7 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B351" s="0">
         <v>350</v>
@@ -19379,7 +19681,7 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B352" s="0">
         <v>351</v>
@@ -19431,7 +19733,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B353" s="0">
         <v>352</v>
@@ -19483,7 +19785,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B354" s="0">
         <v>353</v>
@@ -19535,7 +19837,7 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B355" s="0">
         <v>354</v>
@@ -19587,7 +19889,7 @@
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B356" s="0">
         <v>355</v>
@@ -19639,7 +19941,7 @@
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B357" s="0">
         <v>356</v>
@@ -19691,7 +19993,7 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B358" s="0">
         <v>357</v>
@@ -19743,7 +20045,7 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B359" s="0">
         <v>358</v>
@@ -19795,7 +20097,7 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B360" s="0">
         <v>359</v>
@@ -19847,7 +20149,7 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B361" s="0">
         <v>360</v>
@@ -19899,7 +20201,7 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="B362" s="0">
         <v>361</v>
@@ -19955,7 +20257,7 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="B363" s="0">
         <v>362</v>
@@ -20011,7 +20313,7 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="B364" s="0">
         <v>363</v>
@@ -20063,7 +20365,7 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="B365" s="0">
         <v>364</v>
@@ -20119,7 +20421,7 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="B366" s="0">
         <v>365</v>
@@ -20175,7 +20477,7 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="B367" s="0">
         <v>366</v>
@@ -20231,7 +20533,7 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B368" s="0">
         <v>367</v>
@@ -20287,7 +20589,7 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B369" s="0">
         <v>368</v>
@@ -20343,7 +20645,7 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B370" s="0">
         <v>369</v>
@@ -20395,7 +20697,7 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B371" s="0">
         <v>370</v>
@@ -20447,7 +20749,7 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B372" s="0">
         <v>371</v>
@@ -20499,7 +20801,7 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B373" s="0">
         <v>372</v>
@@ -20555,7 +20857,7 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B374" s="0">
         <v>373</v>
@@ -20611,7 +20913,7 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B375" s="0">
         <v>374</v>
@@ -20663,7 +20965,7 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B376" s="0">
         <v>375</v>
@@ -20719,7 +21021,7 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B377" s="0">
         <v>376</v>
@@ -20775,7 +21077,7 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B378" s="0">
         <v>377</v>
@@ -20831,7 +21133,7 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B379" s="0">
         <v>378</v>
@@ -20887,7 +21189,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B380" s="0">
         <v>379</v>
@@ -20939,7 +21241,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B381" s="0">
         <v>380</v>
@@ -20991,7 +21293,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B382" s="0">
         <v>381</v>
@@ -21047,7 +21349,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B383" s="0">
         <v>382</v>
@@ -21103,7 +21405,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B384" s="0">
         <v>383</v>
@@ -21159,7 +21461,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B385" s="0">
         <v>384</v>
@@ -21211,7 +21513,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B386" s="0">
         <v>385</v>
@@ -21263,7 +21565,7 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B387" s="0">
         <v>386</v>
@@ -21315,7 +21617,7 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B388" s="0">
         <v>387</v>
@@ -21371,7 +21673,7 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B389" s="0">
         <v>388</v>
@@ -21423,7 +21725,7 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B390" s="0">
         <v>389</v>
@@ -21475,7 +21777,7 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B391" s="0">
         <v>390</v>
@@ -21527,7 +21829,7 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B392" s="0">
         <v>391</v>
@@ -21583,7 +21885,7 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B393" s="0">
         <v>392</v>
@@ -21639,7 +21941,7 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B394" s="0">
         <v>393</v>
@@ -21691,7 +21993,7 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B395" s="0">
         <v>394</v>
@@ -21747,7 +22049,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B396" s="0">
         <v>395</v>
@@ -21803,7 +22105,7 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B397" s="0">
         <v>396</v>
@@ -21855,7 +22157,7 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B398" s="0">
         <v>397</v>
@@ -21907,7 +22209,7 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B399" s="0">
         <v>398</v>
@@ -21959,7 +22261,7 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B400" s="0">
         <v>399</v>
@@ -22011,7 +22313,7 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B401" s="0">
         <v>400</v>
@@ -22063,7 +22365,7 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B402" s="0">
         <v>401</v>
@@ -22115,7 +22417,7 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B403" s="0">
         <v>402</v>
@@ -22171,7 +22473,7 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B404" s="0">
         <v>403</v>
@@ -22223,7 +22525,7 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B405" s="0">
         <v>404</v>
@@ -22279,7 +22581,7 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B406" s="0">
         <v>405</v>
@@ -22331,7 +22633,7 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B407" s="0">
         <v>406</v>
@@ -22387,7 +22689,7 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B408" s="0">
         <v>407</v>
@@ -22439,7 +22741,7 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B409" s="0">
         <v>408</v>
@@ -22491,7 +22793,7 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B410" s="0">
         <v>409</v>
@@ -22543,7 +22845,7 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B411" s="0">
         <v>410</v>
@@ -22599,7 +22901,7 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B412" s="0">
         <v>411</v>
@@ -22655,7 +22957,7 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B413" s="0">
         <v>412</v>
@@ -22707,7 +23009,7 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B414" s="0">
         <v>413</v>
@@ -22763,7 +23065,7 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B415" s="0">
         <v>414</v>
@@ -22815,7 +23117,7 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B416" s="0">
         <v>415</v>
@@ -22867,7 +23169,7 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B417" s="0">
         <v>416</v>
@@ -22923,7 +23225,7 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B418" s="0">
         <v>417</v>
@@ -22979,7 +23281,7 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B419" s="0">
         <v>418</v>
@@ -23035,7 +23337,7 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B420" s="0">
         <v>419</v>
@@ -23091,7 +23393,7 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B421" s="0">
         <v>420</v>
@@ -23147,7 +23449,7 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B422" s="0">
         <v>421</v>
@@ -23203,7 +23505,7 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B423" s="0">
         <v>422</v>
@@ -23259,7 +23561,7 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B424" s="0">
         <v>423</v>
@@ -23315,7 +23617,7 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B425" s="0">
         <v>424</v>
@@ -23367,7 +23669,7 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B426" s="0">
         <v>425</v>
@@ -23423,7 +23725,7 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B427" s="0">
         <v>426</v>
@@ -23475,7 +23777,7 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B428" s="0">
         <v>427</v>
@@ -23527,7 +23829,7 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B429" s="0">
         <v>428</v>
@@ -23583,7 +23885,7 @@
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B430" s="0">
         <v>429</v>
@@ -23639,7 +23941,7 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B431" s="0">
         <v>430</v>
@@ -23691,7 +23993,7 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B432" s="0">
         <v>431</v>
@@ -23743,7 +24045,7 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B433" s="0">
         <v>432</v>
@@ -23795,7 +24097,7 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B434" s="0">
         <v>433</v>
@@ -23851,7 +24153,7 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B435" s="0">
         <v>434</v>
@@ -23903,7 +24205,7 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B436" s="0">
         <v>435</v>
@@ -23955,7 +24257,7 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B437" s="0">
         <v>436</v>
@@ -24011,7 +24313,7 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B438" s="0">
         <v>437</v>
@@ -24067,7 +24369,7 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B439" s="0">
         <v>438</v>
@@ -24123,7 +24425,7 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B440" s="0">
         <v>439</v>
@@ -24175,7 +24477,7 @@
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B441" s="0">
         <v>440</v>
@@ -24227,7 +24529,7 @@
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B442" s="0">
         <v>441</v>
@@ -24283,7 +24585,7 @@
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B443" s="0">
         <v>442</v>
@@ -24335,7 +24637,7 @@
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B444" s="0">
         <v>443</v>
@@ -24387,7 +24689,7 @@
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B445" s="0">
         <v>444</v>
@@ -24439,7 +24741,7 @@
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B446" s="0">
         <v>445</v>
@@ -24491,7 +24793,7 @@
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B447" s="0">
         <v>446</v>
@@ -24543,7 +24845,7 @@
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B448" s="0">
         <v>447</v>
@@ -24595,7 +24897,7 @@
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B449" s="0">
         <v>448</v>
@@ -24647,7 +24949,7 @@
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B450" s="0">
         <v>449</v>
@@ -24699,7 +25001,7 @@
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B451" s="0">
         <v>450</v>
@@ -24751,7 +25053,7 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B452" s="0">
         <v>451</v>
@@ -24807,7 +25109,7 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B453" s="0">
         <v>452</v>
@@ -24859,7 +25161,7 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B454" s="0">
         <v>453</v>
@@ -24911,7 +25213,7 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B455" s="0">
         <v>454</v>
@@ -24967,7 +25269,7 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B456" s="0">
         <v>455</v>
@@ -25023,7 +25325,7 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B457" s="0">
         <v>456</v>
@@ -25075,7 +25377,7 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B458" s="0">
         <v>457</v>
@@ -25127,7 +25429,7 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B459" s="0">
         <v>458</v>
@@ -25183,7 +25485,7 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B460" s="0">
         <v>459</v>
@@ -25235,7 +25537,7 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B461" s="0">
         <v>460</v>
@@ -25287,7 +25589,7 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B462" s="0">
         <v>461</v>
@@ -25343,7 +25645,7 @@
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B463" s="0">
         <v>462</v>
@@ -25395,7 +25697,7 @@
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B464" s="0">
         <v>463</v>
@@ -25451,7 +25753,7 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B465" s="0">
         <v>464</v>
@@ -25507,7 +25809,7 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B466" s="0">
         <v>465</v>
@@ -25559,7 +25861,7 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B467" s="0">
         <v>466</v>
@@ -25615,7 +25917,7 @@
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B468" s="0">
         <v>467</v>
@@ -25671,7 +25973,7 @@
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B469" s="0">
         <v>468</v>
@@ -25723,7 +26025,7 @@
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B470" s="0">
         <v>469</v>
@@ -25775,7 +26077,7 @@
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B471" s="0">
         <v>470</v>
@@ -25827,7 +26129,7 @@
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B472" s="0">
         <v>471</v>
@@ -25879,7 +26181,7 @@
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B473" s="0">
         <v>472</v>
@@ -25935,7 +26237,7 @@
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B474" s="0">
         <v>473</v>
@@ -25991,7 +26293,7 @@
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B475" s="0">
         <v>474</v>
@@ -26047,7 +26349,7 @@
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B476" s="0">
         <v>475</v>
@@ -26099,7 +26401,7 @@
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B477" s="0">
         <v>476</v>
@@ -26155,7 +26457,7 @@
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B478" s="0">
         <v>477</v>
@@ -26211,7 +26513,7 @@
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B479" s="0">
         <v>478</v>
@@ -26263,7 +26565,7 @@
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B480" s="0">
         <v>479</v>
@@ -26315,7 +26617,7 @@
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B481" s="0">
         <v>480</v>
@@ -26367,7 +26669,7 @@
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B482" s="0">
         <v>481</v>
@@ -26419,7 +26721,7 @@
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B483" s="0">
         <v>482</v>
@@ -26475,7 +26777,7 @@
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B484" s="0">
         <v>483</v>
@@ -26527,7 +26829,7 @@
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B485" s="0">
         <v>484</v>
@@ -26579,7 +26881,7 @@
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B486" s="0">
         <v>485</v>
@@ -26635,7 +26937,7 @@
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B487" s="0">
         <v>486</v>
@@ -26691,7 +26993,7 @@
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B488" s="0">
         <v>487</v>
@@ -26743,7 +27045,7 @@
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B489" s="0">
         <v>488</v>
@@ -26799,7 +27101,7 @@
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B490" s="0">
         <v>489</v>
@@ -26851,7 +27153,7 @@
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B491" s="0">
         <v>490</v>
@@ -26903,7 +27205,7 @@
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B492" s="0">
         <v>491</v>
@@ -26955,7 +27257,7 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B493" s="0">
         <v>492</v>
@@ -27011,7 +27313,7 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="B494" s="0">
         <v>493</v>
@@ -27067,7 +27369,7 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="B495" s="0">
         <v>494</v>
@@ -27119,7 +27421,7 @@
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="B496" s="0">
         <v>495</v>
@@ -27175,7 +27477,7 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B497" s="0">
         <v>496</v>
@@ -27231,7 +27533,7 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B498" s="0">
         <v>497</v>
@@ -27283,7 +27585,7 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B499" s="0">
         <v>498</v>
@@ -27339,7 +27641,7 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B500" s="0">
         <v>499</v>
@@ -27391,7 +27693,7 @@
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B501" s="0">
         <v>500</v>
@@ -27447,7 +27749,7 @@
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B502" s="0">
         <v>501</v>
@@ -27503,7 +27805,7 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B503" s="0">
         <v>502</v>
@@ -27559,7 +27861,7 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B504" s="0">
         <v>503</v>
@@ -27615,7 +27917,7 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B505" s="0">
         <v>504</v>
@@ -27667,7 +27969,7 @@
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B506" s="0">
         <v>505</v>
@@ -27723,7 +28025,7 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B507" s="0">
         <v>506</v>
@@ -27779,7 +28081,7 @@
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B508" s="0">
         <v>507</v>
@@ -27835,7 +28137,7 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B509" s="0">
         <v>508</v>
@@ -27891,7 +28193,7 @@
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B510" s="0">
         <v>509</v>
@@ -27947,7 +28249,7 @@
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B511" s="0">
         <v>510</v>
@@ -28003,7 +28305,7 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B512" s="0">
         <v>511</v>
@@ -28059,7 +28361,7 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B513" s="0">
         <v>512</v>
@@ -28115,7 +28417,7 @@
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B514" s="0">
         <v>513</v>
@@ -28171,7 +28473,7 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B515" s="0">
         <v>514</v>
@@ -28227,7 +28529,7 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B516" s="0">
         <v>515</v>
@@ -28279,7 +28581,7 @@
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B517" s="0">
         <v>516</v>
@@ -28335,7 +28637,7 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B518" s="0">
         <v>517</v>
@@ -28391,7 +28693,7 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B519" s="0">
         <v>518</v>
@@ -28443,7 +28745,7 @@
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B520" s="0">
         <v>519</v>
@@ -28499,7 +28801,7 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B521" s="0">
         <v>520</v>
@@ -28555,7 +28857,7 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B522" s="0">
         <v>521</v>
@@ -28611,7 +28913,7 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B523" s="0">
         <v>522</v>
@@ -28663,7 +28965,7 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B524" s="0">
         <v>523</v>
@@ -28719,7 +29021,7 @@
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B525" s="0">
         <v>524</v>
@@ -28771,7 +29073,7 @@
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B526" s="0">
         <v>525</v>
@@ -28827,7 +29129,7 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B527" s="0">
         <v>526</v>
@@ -28883,7 +29185,7 @@
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B528" s="0">
         <v>527</v>
@@ -28939,7 +29241,7 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B529" s="0">
         <v>528</v>
@@ -28995,7 +29297,7 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B530" s="0">
         <v>529</v>
@@ -29051,7 +29353,7 @@
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B531" s="0">
         <v>530</v>
@@ -29107,7 +29409,7 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B532" s="0">
         <v>531</v>
@@ -29159,7 +29461,7 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B533" s="0">
         <v>532</v>
@@ -29215,7 +29517,7 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B534" s="0">
         <v>533</v>
@@ -29271,7 +29573,7 @@
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B535" s="0">
         <v>534</v>
@@ -29327,7 +29629,7 @@
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B536" s="0">
         <v>535</v>
@@ -29383,7 +29685,7 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B537" s="0">
         <v>536</v>
@@ -29435,7 +29737,7 @@
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B538" s="0">
         <v>537</v>
@@ -29491,7 +29793,7 @@
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B539" s="0">
         <v>538</v>
@@ -29547,7 +29849,7 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B540" s="0">
         <v>539</v>
@@ -29603,7 +29905,7 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B541" s="0">
         <v>540</v>
@@ -29655,7 +29957,7 @@
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B542" s="0">
         <v>541</v>
@@ -29707,7 +30009,7 @@
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B543" s="0">
         <v>542</v>
@@ -29759,7 +30061,7 @@
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B544" s="0">
         <v>543</v>
@@ -29815,7 +30117,7 @@
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B545" s="0">
         <v>544</v>
@@ -29871,7 +30173,7 @@
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B546" s="0">
         <v>545</v>
@@ -29927,7 +30229,7 @@
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B547" s="0">
         <v>546</v>
@@ -29983,7 +30285,7 @@
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B548" s="0">
         <v>547</v>
@@ -30039,7 +30341,7 @@
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B549" s="0">
         <v>548</v>
@@ -30095,7 +30397,7 @@
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B550" s="0">
         <v>549</v>
@@ -30151,7 +30453,7 @@
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B551" s="0">
         <v>550</v>
@@ -30207,7 +30509,7 @@
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B552" s="0">
         <v>551</v>
@@ -30263,7 +30565,7 @@
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B553" s="0">
         <v>552</v>
@@ -30319,7 +30621,7 @@
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B554" s="0">
         <v>553</v>
@@ -30375,7 +30677,7 @@
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B555" s="0">
         <v>554</v>
@@ -30431,7 +30733,7 @@
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B556" s="0">
         <v>555</v>
@@ -30483,7 +30785,7 @@
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B557" s="0">
         <v>556</v>
@@ -30539,7 +30841,7 @@
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B558" s="0">
         <v>557</v>
@@ -30591,7 +30893,7 @@
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B559" s="0">
         <v>558</v>
@@ -30643,7 +30945,7 @@
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B560" s="0">
         <v>559</v>
@@ -30695,7 +30997,7 @@
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B561" s="0">
         <v>560</v>
@@ -30747,7 +31049,7 @@
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B562" s="0">
         <v>561</v>
@@ -30803,7 +31105,7 @@
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B563" s="0">
         <v>562</v>
@@ -30855,7 +31157,7 @@
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B564" s="0">
         <v>563</v>
@@ -30907,7 +31209,7 @@
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B565" s="0">
         <v>564</v>
@@ -30959,7 +31261,7 @@
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B566" s="0">
         <v>565</v>
@@ -31015,7 +31317,7 @@
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B567" s="0">
         <v>566</v>
@@ -31067,7 +31369,7 @@
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B568" s="0">
         <v>567</v>
@@ -31119,7 +31421,7 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B569" s="0">
         <v>568</v>
@@ -31175,7 +31477,7 @@
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B570" s="0">
         <v>569</v>
@@ -31227,7 +31529,7 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B571" s="0">
         <v>570</v>
@@ -31279,7 +31581,7 @@
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B572" s="0">
         <v>571</v>
@@ -31331,7 +31633,7 @@
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B573" s="0">
         <v>572</v>
@@ -31383,7 +31685,7 @@
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B574" s="0">
         <v>573</v>
@@ -31439,7 +31741,7 @@
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B575" s="0">
         <v>574</v>
@@ -31491,7 +31793,7 @@
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B576" s="0">
         <v>575</v>
@@ -31543,7 +31845,7 @@
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B577" s="0">
         <v>576</v>
@@ -31595,7 +31897,7 @@
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B578" s="0">
         <v>577</v>
@@ -31647,7 +31949,7 @@
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B579" s="0">
         <v>578</v>
@@ -31703,7 +32005,7 @@
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B580" s="0">
         <v>579</v>
@@ -31755,7 +32057,7 @@
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B581" s="0">
         <v>580</v>
@@ -31807,7 +32109,7 @@
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B582" s="0">
         <v>581</v>
@@ -31859,7 +32161,7 @@
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B583" s="0">
         <v>582</v>
@@ -31911,7 +32213,7 @@
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B584" s="0">
         <v>583</v>
@@ -31963,7 +32265,7 @@
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B585" s="0">
         <v>584</v>
@@ -32019,7 +32321,7 @@
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B586" s="0">
         <v>585</v>
@@ -32071,7 +32373,7 @@
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B587" s="0">
         <v>586</v>
@@ -32123,7 +32425,7 @@
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B588" s="0">
         <v>587</v>
@@ -32175,7 +32477,7 @@
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B589" s="0">
         <v>588</v>
@@ -32227,7 +32529,7 @@
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B590" s="0">
         <v>589</v>
@@ -32283,7 +32585,7 @@
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B591" s="0">
         <v>590</v>
@@ -32335,7 +32637,7 @@
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B592" s="0">
         <v>591</v>
@@ -32387,7 +32689,7 @@
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B593" s="0">
         <v>592</v>
@@ -32439,7 +32741,7 @@
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B594" s="0">
         <v>593</v>
@@ -32491,7 +32793,7 @@
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B595" s="0">
         <v>594</v>
@@ -32547,7 +32849,7 @@
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B596" s="0">
         <v>595</v>
@@ -32603,7 +32905,7 @@
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B597" s="0">
         <v>596</v>
@@ -32659,7 +32961,7 @@
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B598" s="0">
         <v>597</v>
@@ -32711,7 +33013,7 @@
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B599" s="0">
         <v>598</v>
@@ -32763,7 +33065,7 @@
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B600" s="0">
         <v>599</v>
@@ -32815,7 +33117,7 @@
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B601" s="0">
         <v>600</v>
@@ -32867,7 +33169,7 @@
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B602" s="0">
         <v>601</v>
@@ -32923,7 +33225,7 @@
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B603" s="0">
         <v>602</v>
@@ -32975,7 +33277,7 @@
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B604" s="0">
         <v>603</v>
@@ -33027,7 +33329,7 @@
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B605" s="0">
         <v>604</v>
@@ -33079,7 +33381,7 @@
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B606" s="0">
         <v>605</v>
@@ -33131,7 +33433,7 @@
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B607" s="0">
         <v>606</v>
@@ -33183,7 +33485,7 @@
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B608" s="0">
         <v>607</v>
@@ -33235,7 +33537,7 @@
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B609" s="0">
         <v>608</v>
@@ -33287,7 +33589,7 @@
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B610" s="0">
         <v>609</v>
@@ -33339,7 +33641,7 @@
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B611" s="0">
         <v>610</v>
@@ -33391,7 +33693,7 @@
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B612" s="0">
         <v>611</v>
@@ -33447,7 +33749,7 @@
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B613" s="0">
         <v>612</v>
@@ -33499,7 +33801,7 @@
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B614" s="0">
         <v>613</v>
@@ -33551,7 +33853,7 @@
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B615" s="0">
         <v>614</v>
@@ -33607,7 +33909,7 @@
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B616" s="0">
         <v>615</v>
@@ -33659,7 +33961,7 @@
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B617" s="0">
         <v>616</v>
@@ -33715,7 +34017,7 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B618" s="0">
         <v>617</v>
@@ -33767,7 +34069,7 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B619" s="0">
         <v>618</v>
@@ -33823,7 +34125,7 @@
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B620" s="0">
         <v>619</v>
@@ -33875,7 +34177,7 @@
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B621" s="0">
         <v>620</v>
@@ -33931,7 +34233,7 @@
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B622" s="0">
         <v>621</v>
@@ -33983,7 +34285,7 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B623" s="0">
         <v>622</v>
@@ -34035,7 +34337,7 @@
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B624" s="0">
         <v>623</v>
@@ -34087,7 +34389,7 @@
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B625" s="0">
         <v>624</v>
@@ -34139,7 +34441,7 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B626" s="0">
         <v>625</v>
@@ -34195,7 +34497,7 @@
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B627" s="0">
         <v>626</v>
@@ -34247,7 +34549,7 @@
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B628" s="0">
         <v>627</v>
@@ -34299,7 +34601,7 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B629" s="0">
         <v>628</v>
@@ -34351,7 +34653,7 @@
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B630" s="0">
         <v>629</v>
@@ -34403,7 +34705,7 @@
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B631" s="0">
         <v>630</v>
@@ -34455,7 +34757,7 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B632" s="0">
         <v>631</v>
@@ -34511,7 +34813,7 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B633" s="0">
         <v>632</v>
@@ -34563,7 +34865,7 @@
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B634" s="0">
         <v>633</v>
@@ -34615,7 +34917,7 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B635" s="0">
         <v>634</v>
@@ -34667,7 +34969,7 @@
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B636" s="0">
         <v>635</v>
@@ -34719,7 +35021,7 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B637" s="0">
         <v>636</v>
@@ -34775,7 +35077,7 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B638" s="0">
         <v>637</v>
@@ -34827,7 +35129,7 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B639" s="0">
         <v>638</v>
@@ -34879,7 +35181,7 @@
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B640" s="0">
         <v>639</v>
@@ -34935,7 +35237,7 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B641" s="0">
         <v>640</v>
@@ -34987,7 +35289,7 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B642" s="0">
         <v>641</v>
@@ -35039,7 +35341,7 @@
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B643" s="0">
         <v>642</v>
@@ -35095,7 +35397,7 @@
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B644" s="0">
         <v>643</v>
@@ -35147,7 +35449,7 @@
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B645" s="0">
         <v>644</v>
@@ -35199,7 +35501,7 @@
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B646" s="0">
         <v>645</v>
@@ -35255,7 +35557,7 @@
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B647" s="0">
         <v>646</v>
@@ -35307,7 +35609,7 @@
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B648" s="0">
         <v>647</v>
@@ -35363,7 +35665,7 @@
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B649" s="0">
         <v>648</v>
@@ -35415,7 +35717,7 @@
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B650" s="0">
         <v>649</v>
@@ -35467,7 +35769,7 @@
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B651" s="0">
         <v>650</v>
@@ -35519,7 +35821,7 @@
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B652" s="0">
         <v>651</v>
@@ -35571,7 +35873,7 @@
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B653" s="0">
         <v>652</v>
@@ -35623,7 +35925,7 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B654" s="0">
         <v>653</v>
@@ -35679,7 +35981,7 @@
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B655" s="0">
         <v>654</v>
@@ -35735,7 +36037,7 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B656" s="0">
         <v>655</v>
@@ -35787,7 +36089,7 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B657" s="0">
         <v>656</v>
@@ -35843,7 +36145,7 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B658" s="0">
         <v>657</v>
@@ -35899,7 +36201,7 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B659" s="0">
         <v>658</v>
@@ -35955,7 +36257,7 @@
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B660" s="0">
         <v>659</v>
@@ -36011,7 +36313,7 @@
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B661" s="0">
         <v>660</v>
@@ -36067,7 +36369,7 @@
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B662" s="0">
         <v>661</v>
@@ -36123,7 +36425,7 @@
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B663" s="0">
         <v>662</v>
@@ -36179,7 +36481,7 @@
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B664" s="0">
         <v>663</v>
@@ -36235,7 +36537,7 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B665" s="0">
         <v>664</v>
@@ -36291,7 +36593,7 @@
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B666" s="0">
         <v>665</v>
@@ -36347,7 +36649,7 @@
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B667" s="0">
         <v>666</v>
@@ -36403,7 +36705,7 @@
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B668" s="0">
         <v>667</v>
@@ -36459,7 +36761,7 @@
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="B669" s="0">
         <v>668</v>
@@ -36511,7 +36813,7 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B670" s="0">
         <v>669</v>
@@ -36567,7 +36869,7 @@
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="B671" s="0">
         <v>670</v>
@@ -36623,7 +36925,7 @@
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="B672" s="0">
         <v>671</v>
@@ -36679,7 +36981,7 @@
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="B673" s="0">
         <v>672</v>
@@ -36735,7 +37037,7 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="B674" s="0">
         <v>673</v>
@@ -36787,7 +37089,7 @@
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="B675" s="0">
         <v>674</v>
@@ -36843,7 +37145,7 @@
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="B676" s="0">
         <v>675</v>
@@ -36899,7 +37201,7 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="B677" s="0">
         <v>676</v>
@@ -36955,7 +37257,7 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B678" s="0">
         <v>677</v>
@@ -37007,7 +37309,7 @@
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B679" s="0">
         <v>678</v>
@@ -37059,7 +37361,7 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B680" s="0">
         <v>679</v>
@@ -37111,7 +37413,7 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B681" s="0">
         <v>680</v>
@@ -37163,7 +37465,7 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B682" s="0">
         <v>681</v>
@@ -37219,7 +37521,7 @@
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B683" s="0">
         <v>682</v>
@@ -37275,7 +37577,7 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B684" s="0">
         <v>683</v>
@@ -37331,7 +37633,7 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B685" s="0">
         <v>684</v>
@@ -37387,7 +37689,7 @@
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="B686" s="0">
         <v>685</v>
@@ -37443,7 +37745,7 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="B687" s="0">
         <v>686</v>
@@ -37499,7 +37801,7 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="B688" s="0">
         <v>687</v>
@@ -37555,7 +37857,7 @@
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B689" s="0">
         <v>688</v>
@@ -37611,7 +37913,7 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B690" s="0">
         <v>689</v>
@@ -37667,7 +37969,7 @@
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B691" s="0">
         <v>690</v>
@@ -37723,7 +38025,7 @@
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B692" s="0">
         <v>691</v>
@@ -37779,7 +38081,7 @@
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B693" s="0">
         <v>692</v>
@@ -37835,7 +38137,7 @@
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B694" s="0">
         <v>693</v>
@@ -37891,7 +38193,7 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B695" s="0">
         <v>694</v>
@@ -37943,7 +38245,7 @@
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B696" s="0">
         <v>695</v>
@@ -37999,7 +38301,7 @@
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B697" s="0">
         <v>696</v>
@@ -38051,7 +38353,7 @@
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B698" s="0">
         <v>697</v>
@@ -38107,7 +38409,7 @@
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B699" s="0">
         <v>698</v>
@@ -38159,7 +38461,7 @@
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B700" s="0">
         <v>699</v>
@@ -38211,7 +38513,7 @@
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B701" s="0">
         <v>700</v>
@@ -38263,7 +38565,7 @@
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B702" s="0">
         <v>701</v>
@@ -38319,7 +38621,7 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B703" s="0">
         <v>702</v>
@@ -38371,7 +38673,7 @@
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B704" s="0">
         <v>703</v>
@@ -38427,7 +38729,7 @@
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B705" s="0">
         <v>704</v>
@@ -38483,7 +38785,7 @@
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B706" s="0">
         <v>705</v>
@@ -38539,7 +38841,7 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B707" s="0">
         <v>706</v>
@@ -38591,7 +38893,7 @@
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B708" s="0">
         <v>707</v>
@@ -38647,7 +38949,7 @@
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B709" s="0">
         <v>708</v>
@@ -38699,7 +39001,7 @@
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B710" s="0">
         <v>709</v>
@@ -38755,7 +39057,7 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B711" s="0">
         <v>710</v>
@@ -38807,7 +39109,7 @@
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B712" s="0">
         <v>711</v>
@@ -38863,7 +39165,7 @@
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="B713" s="0">
         <v>712</v>
@@ -38919,7 +39221,7 @@
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="B714" s="0">
         <v>713</v>
@@ -38975,7 +39277,7 @@
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="B715" s="0">
         <v>714</v>
@@ -39031,7 +39333,7 @@
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="B716" s="0">
         <v>715</v>
@@ -39087,7 +39389,7 @@
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="B717" s="0">
         <v>716</v>
@@ -39139,7 +39441,7 @@
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="B718" s="0">
         <v>717</v>
@@ -39195,7 +39497,7 @@
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B719" s="0">
         <v>718</v>
@@ -39251,7 +39553,7 @@
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B720" s="0">
         <v>719</v>
@@ -39307,7 +39609,7 @@
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B721" s="0">
         <v>720</v>
@@ -39363,7 +39665,7 @@
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B722" s="0">
         <v>721</v>
@@ -39415,7 +39717,7 @@
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B723" s="0">
         <v>722</v>
@@ -39471,7 +39773,7 @@
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B724" s="0">
         <v>723</v>
@@ -39523,7 +39825,7 @@
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B725" s="0">
         <v>724</v>
@@ -39579,7 +39881,7 @@
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B726" s="0">
         <v>725</v>
@@ -39631,7 +39933,7 @@
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B727" s="0">
         <v>726</v>
@@ -39687,7 +39989,7 @@
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B728" s="0">
         <v>727</v>
@@ -39739,7 +40041,7 @@
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B729" s="0">
         <v>728</v>
@@ -39791,7 +40093,7 @@
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B730" s="0">
         <v>729</v>
@@ -39843,7 +40145,7 @@
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B731" s="0">
         <v>730</v>
@@ -39899,7 +40201,7 @@
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B732" s="0">
         <v>731</v>
@@ -39951,7 +40253,7 @@
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B733" s="0">
         <v>732</v>
@@ -40007,7 +40309,7 @@
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B734" s="0">
         <v>733</v>
@@ -40063,7 +40365,7 @@
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B735" s="0">
         <v>734</v>
@@ -40115,7 +40417,7 @@
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B736" s="0">
         <v>735</v>
@@ -40167,7 +40469,7 @@
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B737" s="0">
         <v>736</v>
@@ -40219,7 +40521,7 @@
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B738" s="0">
         <v>737</v>
@@ -40271,7 +40573,7 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B739" s="0">
         <v>738</v>
@@ -40323,7 +40625,7 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B740" s="0">
         <v>739</v>
@@ -40375,7 +40677,7 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B741" s="0">
         <v>740</v>
@@ -40427,7 +40729,7 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B742" s="0">
         <v>741</v>
@@ -40479,7 +40781,7 @@
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B743" s="0">
         <v>742</v>
@@ -40531,7 +40833,7 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B744" s="0">
         <v>743</v>
@@ -40587,7 +40889,7 @@
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B745" s="0">
         <v>744</v>
@@ -40639,7 +40941,7 @@
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B746" s="0">
         <v>745</v>
@@ -40691,7 +40993,7 @@
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B747" s="0">
         <v>746</v>
@@ -40743,7 +41045,7 @@
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B748" s="0">
         <v>747</v>
